--- a/sequences/03_retrieval_2.xlsx
+++ b/sequences/03_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2032,6 +2032,30 @@
       <c r="F6" t="s">
         <v>209</v>
       </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2316,6 +2340,30 @@
       <c r="F13" t="s">
         <v>209</v>
       </c>
+      <c r="G13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2336,6 +2384,30 @@
       <c r="F14" t="s">
         <v>209</v>
       </c>
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" t="s">
+        <v>209</v>
+      </c>
+      <c r="N14" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2400,6 +2472,30 @@
       <c r="F16" t="s">
         <v>209</v>
       </c>
+      <c r="G16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2508,6 +2604,30 @@
       <c r="F19" t="s">
         <v>209</v>
       </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2748,6 +2868,30 @@
       <c r="F25" t="s">
         <v>209</v>
       </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2768,6 +2912,30 @@
       <c r="F26" t="s">
         <v>209</v>
       </c>
+      <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s">
+        <v>209</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2788,6 +2956,30 @@
       <c r="F27" t="s">
         <v>209</v>
       </c>
+      <c r="G27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2984,6 +3176,30 @@
       <c r="F32" t="s">
         <v>209</v>
       </c>
+      <c r="G32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -3180,6 +3396,30 @@
       <c r="F37" t="s">
         <v>209</v>
       </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s">
+        <v>209</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3244,6 +3484,30 @@
       <c r="F39" t="s">
         <v>209</v>
       </c>
+      <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" t="s">
+        <v>209</v>
+      </c>
+      <c r="M39" t="s">
+        <v>209</v>
+      </c>
+      <c r="N39" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3396,6 +3660,30 @@
       <c r="F43" t="s">
         <v>209</v>
       </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" t="s">
+        <v>209</v>
+      </c>
+      <c r="N43" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3504,6 +3792,30 @@
       <c r="F46" t="s">
         <v>209</v>
       </c>
+      <c r="G46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" t="s">
+        <v>209</v>
+      </c>
+      <c r="M46" t="s">
+        <v>209</v>
+      </c>
+      <c r="N46" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3568,6 +3880,30 @@
       <c r="F48" t="s">
         <v>209</v>
       </c>
+      <c r="G48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" t="s">
+        <v>209</v>
+      </c>
+      <c r="J48" t="s">
+        <v>209</v>
+      </c>
+      <c r="K48" t="s">
+        <v>209</v>
+      </c>
+      <c r="L48" t="s">
+        <v>209</v>
+      </c>
+      <c r="M48" t="s">
+        <v>209</v>
+      </c>
+      <c r="N48" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3632,6 +3968,30 @@
       <c r="F50" t="s">
         <v>209</v>
       </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" t="s">
+        <v>209</v>
+      </c>
+      <c r="N50" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3652,6 +4012,30 @@
       <c r="F51" t="s">
         <v>209</v>
       </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" t="s">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s">
+        <v>209</v>
+      </c>
+      <c r="M51" t="s">
+        <v>209</v>
+      </c>
+      <c r="N51" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3760,6 +4144,30 @@
       <c r="F54" t="s">
         <v>209</v>
       </c>
+      <c r="G54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" t="s">
+        <v>209</v>
+      </c>
+      <c r="M54" t="s">
+        <v>209</v>
+      </c>
+      <c r="N54" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3780,6 +4188,30 @@
       <c r="F55" t="s">
         <v>209</v>
       </c>
+      <c r="G55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55" t="s">
+        <v>209</v>
+      </c>
+      <c r="L55" t="s">
+        <v>209</v>
+      </c>
+      <c r="M55" t="s">
+        <v>209</v>
+      </c>
+      <c r="N55" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3800,6 +4232,30 @@
       <c r="F56" t="s">
         <v>209</v>
       </c>
+      <c r="G56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" t="s">
+        <v>209</v>
+      </c>
+      <c r="L56" t="s">
+        <v>209</v>
+      </c>
+      <c r="M56" t="s">
+        <v>209</v>
+      </c>
+      <c r="N56" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3996,6 +4452,30 @@
       <c r="F61" t="s">
         <v>209</v>
       </c>
+      <c r="G61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61" t="s">
+        <v>209</v>
+      </c>
+      <c r="J61" t="s">
+        <v>209</v>
+      </c>
+      <c r="K61" t="s">
+        <v>209</v>
+      </c>
+      <c r="L61" t="s">
+        <v>209</v>
+      </c>
+      <c r="M61" t="s">
+        <v>209</v>
+      </c>
+      <c r="N61" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4016,6 +4496,30 @@
       <c r="F62" t="s">
         <v>209</v>
       </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J62" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62" t="s">
+        <v>209</v>
+      </c>
+      <c r="M62" t="s">
+        <v>209</v>
+      </c>
+      <c r="N62" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4036,6 +4540,30 @@
       <c r="F63" t="s">
         <v>209</v>
       </c>
+      <c r="G63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" t="s">
+        <v>209</v>
+      </c>
+      <c r="J63" t="s">
+        <v>209</v>
+      </c>
+      <c r="K63" t="s">
+        <v>209</v>
+      </c>
+      <c r="L63" t="s">
+        <v>209</v>
+      </c>
+      <c r="M63" t="s">
+        <v>209</v>
+      </c>
+      <c r="N63" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4188,6 +4716,30 @@
       <c r="F67" t="s">
         <v>209</v>
       </c>
+      <c r="G67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" t="s">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" t="s">
+        <v>209</v>
+      </c>
+      <c r="L67" t="s">
+        <v>209</v>
+      </c>
+      <c r="M67" t="s">
+        <v>209</v>
+      </c>
+      <c r="N67" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4252,6 +4804,30 @@
       <c r="F69" t="s">
         <v>209</v>
       </c>
+      <c r="G69" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" t="s">
+        <v>209</v>
+      </c>
+      <c r="I69" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69" t="s">
+        <v>209</v>
+      </c>
+      <c r="K69" t="s">
+        <v>209</v>
+      </c>
+      <c r="L69" t="s">
+        <v>209</v>
+      </c>
+      <c r="M69" t="s">
+        <v>209</v>
+      </c>
+      <c r="N69" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4404,6 +4980,30 @@
       <c r="F73" t="s">
         <v>209</v>
       </c>
+      <c r="G73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H73" t="s">
+        <v>209</v>
+      </c>
+      <c r="I73" t="s">
+        <v>209</v>
+      </c>
+      <c r="J73" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" t="s">
+        <v>209</v>
+      </c>
+      <c r="L73" t="s">
+        <v>209</v>
+      </c>
+      <c r="M73" t="s">
+        <v>209</v>
+      </c>
+      <c r="N73" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4468,6 +5068,30 @@
       <c r="F75" t="s">
         <v>209</v>
       </c>
+      <c r="G75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" t="s">
+        <v>209</v>
+      </c>
+      <c r="J75" t="s">
+        <v>209</v>
+      </c>
+      <c r="K75" t="s">
+        <v>209</v>
+      </c>
+      <c r="L75" t="s">
+        <v>209</v>
+      </c>
+      <c r="M75" t="s">
+        <v>209</v>
+      </c>
+      <c r="N75" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4488,6 +5112,30 @@
       <c r="F76" t="s">
         <v>209</v>
       </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" t="s">
+        <v>209</v>
+      </c>
+      <c r="J76" t="s">
+        <v>209</v>
+      </c>
+      <c r="K76" t="s">
+        <v>209</v>
+      </c>
+      <c r="L76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M76" t="s">
+        <v>209</v>
+      </c>
+      <c r="N76" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4508,6 +5156,30 @@
       <c r="F77" t="s">
         <v>209</v>
       </c>
+      <c r="G77" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" t="s">
+        <v>209</v>
+      </c>
+      <c r="J77" t="s">
+        <v>209</v>
+      </c>
+      <c r="K77" t="s">
+        <v>209</v>
+      </c>
+      <c r="L77" t="s">
+        <v>209</v>
+      </c>
+      <c r="M77" t="s">
+        <v>209</v>
+      </c>
+      <c r="N77" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4792,6 +5464,30 @@
       <c r="F84" t="s">
         <v>209</v>
       </c>
+      <c r="G84" t="s">
+        <v>209</v>
+      </c>
+      <c r="H84" t="s">
+        <v>209</v>
+      </c>
+      <c r="I84" t="s">
+        <v>209</v>
+      </c>
+      <c r="J84" t="s">
+        <v>209</v>
+      </c>
+      <c r="K84" t="s">
+        <v>209</v>
+      </c>
+      <c r="L84" t="s">
+        <v>209</v>
+      </c>
+      <c r="M84" t="s">
+        <v>209</v>
+      </c>
+      <c r="N84" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4856,6 +5552,30 @@
       <c r="F86" t="s">
         <v>209</v>
       </c>
+      <c r="G86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" t="s">
+        <v>209</v>
+      </c>
+      <c r="J86" t="s">
+        <v>209</v>
+      </c>
+      <c r="K86" t="s">
+        <v>209</v>
+      </c>
+      <c r="L86" t="s">
+        <v>209</v>
+      </c>
+      <c r="M86" t="s">
+        <v>209</v>
+      </c>
+      <c r="N86" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5096,6 +5816,30 @@
       <c r="F92" t="s">
         <v>209</v>
       </c>
+      <c r="G92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92" t="s">
+        <v>209</v>
+      </c>
+      <c r="K92" t="s">
+        <v>209</v>
+      </c>
+      <c r="L92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M92" t="s">
+        <v>209</v>
+      </c>
+      <c r="N92" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5116,6 +5860,30 @@
       <c r="F93" t="s">
         <v>209</v>
       </c>
+      <c r="G93" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" t="s">
+        <v>209</v>
+      </c>
+      <c r="I93" t="s">
+        <v>209</v>
+      </c>
+      <c r="J93" t="s">
+        <v>209</v>
+      </c>
+      <c r="K93" t="s">
+        <v>209</v>
+      </c>
+      <c r="L93" t="s">
+        <v>209</v>
+      </c>
+      <c r="M93" t="s">
+        <v>209</v>
+      </c>
+      <c r="N93" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5180,6 +5948,30 @@
       <c r="F95" t="s">
         <v>209</v>
       </c>
+      <c r="G95" t="s">
+        <v>209</v>
+      </c>
+      <c r="H95" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" t="s">
+        <v>209</v>
+      </c>
+      <c r="J95" t="s">
+        <v>209</v>
+      </c>
+      <c r="K95" t="s">
+        <v>209</v>
+      </c>
+      <c r="L95" t="s">
+        <v>209</v>
+      </c>
+      <c r="M95" t="s">
+        <v>209</v>
+      </c>
+      <c r="N95" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5200,6 +5992,30 @@
       <c r="F96" t="s">
         <v>209</v>
       </c>
+      <c r="G96" t="s">
+        <v>209</v>
+      </c>
+      <c r="H96" t="s">
+        <v>209</v>
+      </c>
+      <c r="I96" t="s">
+        <v>209</v>
+      </c>
+      <c r="J96" t="s">
+        <v>209</v>
+      </c>
+      <c r="K96" t="s">
+        <v>209</v>
+      </c>
+      <c r="L96" t="s">
+        <v>209</v>
+      </c>
+      <c r="M96" t="s">
+        <v>209</v>
+      </c>
+      <c r="N96" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5396,6 +6212,30 @@
       <c r="F101" t="s">
         <v>209</v>
       </c>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" t="s">
+        <v>209</v>
+      </c>
+      <c r="I101" t="s">
+        <v>209</v>
+      </c>
+      <c r="J101" t="s">
+        <v>209</v>
+      </c>
+      <c r="K101" t="s">
+        <v>209</v>
+      </c>
+      <c r="L101" t="s">
+        <v>209</v>
+      </c>
+      <c r="M101" t="s">
+        <v>209</v>
+      </c>
+      <c r="N101" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5548,6 +6388,30 @@
       <c r="F105" t="s">
         <v>209</v>
       </c>
+      <c r="G105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" t="s">
+        <v>209</v>
+      </c>
+      <c r="I105" t="s">
+        <v>209</v>
+      </c>
+      <c r="J105" t="s">
+        <v>209</v>
+      </c>
+      <c r="K105" t="s">
+        <v>209</v>
+      </c>
+      <c r="L105" t="s">
+        <v>209</v>
+      </c>
+      <c r="M105" t="s">
+        <v>209</v>
+      </c>
+      <c r="N105" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5568,6 +6432,30 @@
       <c r="F106" t="s">
         <v>209</v>
       </c>
+      <c r="G106" t="s">
+        <v>209</v>
+      </c>
+      <c r="H106" t="s">
+        <v>209</v>
+      </c>
+      <c r="I106" t="s">
+        <v>209</v>
+      </c>
+      <c r="J106" t="s">
+        <v>209</v>
+      </c>
+      <c r="K106" t="s">
+        <v>209</v>
+      </c>
+      <c r="L106" t="s">
+        <v>209</v>
+      </c>
+      <c r="M106" t="s">
+        <v>209</v>
+      </c>
+      <c r="N106" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5720,6 +6608,30 @@
       <c r="F110" t="s">
         <v>209</v>
       </c>
+      <c r="G110" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110" t="s">
+        <v>209</v>
+      </c>
+      <c r="I110" t="s">
+        <v>209</v>
+      </c>
+      <c r="J110" t="s">
+        <v>209</v>
+      </c>
+      <c r="K110" t="s">
+        <v>209</v>
+      </c>
+      <c r="L110" t="s">
+        <v>209</v>
+      </c>
+      <c r="M110" t="s">
+        <v>209</v>
+      </c>
+      <c r="N110" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5960,6 +6872,30 @@
       <c r="F116" t="s">
         <v>209</v>
       </c>
+      <c r="G116" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" t="s">
+        <v>209</v>
+      </c>
+      <c r="J116" t="s">
+        <v>209</v>
+      </c>
+      <c r="K116" t="s">
+        <v>209</v>
+      </c>
+      <c r="L116" t="s">
+        <v>209</v>
+      </c>
+      <c r="M116" t="s">
+        <v>209</v>
+      </c>
+      <c r="N116" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6156,6 +7092,30 @@
       <c r="F121" t="s">
         <v>209</v>
       </c>
+      <c r="G121" t="s">
+        <v>209</v>
+      </c>
+      <c r="H121" t="s">
+        <v>209</v>
+      </c>
+      <c r="I121" t="s">
+        <v>209</v>
+      </c>
+      <c r="J121" t="s">
+        <v>209</v>
+      </c>
+      <c r="K121" t="s">
+        <v>209</v>
+      </c>
+      <c r="L121" t="s">
+        <v>209</v>
+      </c>
+      <c r="M121" t="s">
+        <v>209</v>
+      </c>
+      <c r="N121" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6264,6 +7224,30 @@
       <c r="F124" t="s">
         <v>209</v>
       </c>
+      <c r="G124" t="s">
+        <v>209</v>
+      </c>
+      <c r="H124" t="s">
+        <v>209</v>
+      </c>
+      <c r="I124" t="s">
+        <v>209</v>
+      </c>
+      <c r="J124" t="s">
+        <v>209</v>
+      </c>
+      <c r="K124" t="s">
+        <v>209</v>
+      </c>
+      <c r="L124" t="s">
+        <v>209</v>
+      </c>
+      <c r="M124" t="s">
+        <v>209</v>
+      </c>
+      <c r="N124" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6284,6 +7268,30 @@
       <c r="F125" t="s">
         <v>209</v>
       </c>
+      <c r="G125" t="s">
+        <v>209</v>
+      </c>
+      <c r="H125" t="s">
+        <v>209</v>
+      </c>
+      <c r="I125" t="s">
+        <v>209</v>
+      </c>
+      <c r="J125" t="s">
+        <v>209</v>
+      </c>
+      <c r="K125" t="s">
+        <v>209</v>
+      </c>
+      <c r="L125" t="s">
+        <v>209</v>
+      </c>
+      <c r="M125" t="s">
+        <v>209</v>
+      </c>
+      <c r="N125" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6392,6 +7400,30 @@
       <c r="F128" t="s">
         <v>209</v>
       </c>
+      <c r="G128" t="s">
+        <v>209</v>
+      </c>
+      <c r="H128" t="s">
+        <v>209</v>
+      </c>
+      <c r="I128" t="s">
+        <v>209</v>
+      </c>
+      <c r="J128" t="s">
+        <v>209</v>
+      </c>
+      <c r="K128" t="s">
+        <v>209</v>
+      </c>
+      <c r="L128" t="s">
+        <v>209</v>
+      </c>
+      <c r="M128" t="s">
+        <v>209</v>
+      </c>
+      <c r="N128" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6412,6 +7444,30 @@
       <c r="F129" t="s">
         <v>209</v>
       </c>
+      <c r="G129" t="s">
+        <v>209</v>
+      </c>
+      <c r="H129" t="s">
+        <v>209</v>
+      </c>
+      <c r="I129" t="s">
+        <v>209</v>
+      </c>
+      <c r="J129" t="s">
+        <v>209</v>
+      </c>
+      <c r="K129" t="s">
+        <v>209</v>
+      </c>
+      <c r="L129" t="s">
+        <v>209</v>
+      </c>
+      <c r="M129" t="s">
+        <v>209</v>
+      </c>
+      <c r="N129" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6520,6 +7576,30 @@
       <c r="F132" t="s">
         <v>209</v>
       </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" t="s">
+        <v>209</v>
+      </c>
+      <c r="I132" t="s">
+        <v>209</v>
+      </c>
+      <c r="J132" t="s">
+        <v>209</v>
+      </c>
+      <c r="K132" t="s">
+        <v>209</v>
+      </c>
+      <c r="L132" t="s">
+        <v>209</v>
+      </c>
+      <c r="M132" t="s">
+        <v>209</v>
+      </c>
+      <c r="N132" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6672,6 +7752,30 @@
       <c r="F136" t="s">
         <v>209</v>
       </c>
+      <c r="G136" t="s">
+        <v>209</v>
+      </c>
+      <c r="H136" t="s">
+        <v>209</v>
+      </c>
+      <c r="I136" t="s">
+        <v>209</v>
+      </c>
+      <c r="J136" t="s">
+        <v>209</v>
+      </c>
+      <c r="K136" t="s">
+        <v>209</v>
+      </c>
+      <c r="L136" t="s">
+        <v>209</v>
+      </c>
+      <c r="M136" t="s">
+        <v>209</v>
+      </c>
+      <c r="N136" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6780,6 +7884,30 @@
       <c r="F139" t="s">
         <v>209</v>
       </c>
+      <c r="G139" t="s">
+        <v>209</v>
+      </c>
+      <c r="H139" t="s">
+        <v>209</v>
+      </c>
+      <c r="I139" t="s">
+        <v>209</v>
+      </c>
+      <c r="J139" t="s">
+        <v>209</v>
+      </c>
+      <c r="K139" t="s">
+        <v>209</v>
+      </c>
+      <c r="L139" t="s">
+        <v>209</v>
+      </c>
+      <c r="M139" t="s">
+        <v>209</v>
+      </c>
+      <c r="N139" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6932,6 +8060,30 @@
       <c r="F143" t="s">
         <v>209</v>
       </c>
+      <c r="G143" t="s">
+        <v>209</v>
+      </c>
+      <c r="H143" t="s">
+        <v>209</v>
+      </c>
+      <c r="I143" t="s">
+        <v>209</v>
+      </c>
+      <c r="J143" t="s">
+        <v>209</v>
+      </c>
+      <c r="K143" t="s">
+        <v>209</v>
+      </c>
+      <c r="L143" t="s">
+        <v>209</v>
+      </c>
+      <c r="M143" t="s">
+        <v>209</v>
+      </c>
+      <c r="N143" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -6952,6 +8104,30 @@
       <c r="F144" t="s">
         <v>209</v>
       </c>
+      <c r="G144" t="s">
+        <v>209</v>
+      </c>
+      <c r="H144" t="s">
+        <v>209</v>
+      </c>
+      <c r="I144" t="s">
+        <v>209</v>
+      </c>
+      <c r="J144" t="s">
+        <v>209</v>
+      </c>
+      <c r="K144" t="s">
+        <v>209</v>
+      </c>
+      <c r="L144" t="s">
+        <v>209</v>
+      </c>
+      <c r="M144" t="s">
+        <v>209</v>
+      </c>
+      <c r="N144" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -6972,6 +8148,30 @@
       <c r="F145" t="s">
         <v>209</v>
       </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" t="s">
+        <v>209</v>
+      </c>
+      <c r="I145" t="s">
+        <v>209</v>
+      </c>
+      <c r="J145" t="s">
+        <v>209</v>
+      </c>
+      <c r="K145" t="s">
+        <v>209</v>
+      </c>
+      <c r="L145" t="s">
+        <v>209</v>
+      </c>
+      <c r="M145" t="s">
+        <v>209</v>
+      </c>
+      <c r="N145" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7124,6 +8324,30 @@
       <c r="F149" t="s">
         <v>209</v>
       </c>
+      <c r="G149" t="s">
+        <v>209</v>
+      </c>
+      <c r="H149" t="s">
+        <v>209</v>
+      </c>
+      <c r="I149" t="s">
+        <v>209</v>
+      </c>
+      <c r="J149" t="s">
+        <v>209</v>
+      </c>
+      <c r="K149" t="s">
+        <v>209</v>
+      </c>
+      <c r="L149" t="s">
+        <v>209</v>
+      </c>
+      <c r="M149" t="s">
+        <v>209</v>
+      </c>
+      <c r="N149" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
@@ -7408,6 +8632,30 @@
       <c r="F156" t="s">
         <v>209</v>
       </c>
+      <c r="G156" t="s">
+        <v>209</v>
+      </c>
+      <c r="H156" t="s">
+        <v>209</v>
+      </c>
+      <c r="I156" t="s">
+        <v>209</v>
+      </c>
+      <c r="J156" t="s">
+        <v>209</v>
+      </c>
+      <c r="K156" t="s">
+        <v>209</v>
+      </c>
+      <c r="L156" t="s">
+        <v>209</v>
+      </c>
+      <c r="M156" t="s">
+        <v>209</v>
+      </c>
+      <c r="N156" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7560,6 +8808,30 @@
       <c r="F160" t="s">
         <v>209</v>
       </c>
+      <c r="G160" t="s">
+        <v>209</v>
+      </c>
+      <c r="H160" t="s">
+        <v>209</v>
+      </c>
+      <c r="I160" t="s">
+        <v>209</v>
+      </c>
+      <c r="J160" t="s">
+        <v>209</v>
+      </c>
+      <c r="K160" t="s">
+        <v>209</v>
+      </c>
+      <c r="L160" t="s">
+        <v>209</v>
+      </c>
+      <c r="M160" t="s">
+        <v>209</v>
+      </c>
+      <c r="N160" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7580,6 +8852,30 @@
       <c r="F161" t="s">
         <v>209</v>
       </c>
+      <c r="G161" t="s">
+        <v>209</v>
+      </c>
+      <c r="H161" t="s">
+        <v>209</v>
+      </c>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+      <c r="K161" t="s">
+        <v>209</v>
+      </c>
+      <c r="L161" t="s">
+        <v>209</v>
+      </c>
+      <c r="M161" t="s">
+        <v>209</v>
+      </c>
+      <c r="N161" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7732,6 +9028,30 @@
       <c r="F165" t="s">
         <v>209</v>
       </c>
+      <c r="G165" t="s">
+        <v>209</v>
+      </c>
+      <c r="H165" t="s">
+        <v>209</v>
+      </c>
+      <c r="I165" t="s">
+        <v>209</v>
+      </c>
+      <c r="J165" t="s">
+        <v>209</v>
+      </c>
+      <c r="K165" t="s">
+        <v>209</v>
+      </c>
+      <c r="L165" t="s">
+        <v>209</v>
+      </c>
+      <c r="M165" t="s">
+        <v>209</v>
+      </c>
+      <c r="N165" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7928,6 +9248,30 @@
       <c r="F170" t="s">
         <v>209</v>
       </c>
+      <c r="G170" t="s">
+        <v>209</v>
+      </c>
+      <c r="H170" t="s">
+        <v>209</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+      <c r="K170" t="s">
+        <v>209</v>
+      </c>
+      <c r="L170" t="s">
+        <v>209</v>
+      </c>
+      <c r="M170" t="s">
+        <v>209</v>
+      </c>
+      <c r="N170" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7948,6 +9292,30 @@
       <c r="F171" t="s">
         <v>209</v>
       </c>
+      <c r="G171" t="s">
+        <v>209</v>
+      </c>
+      <c r="H171" t="s">
+        <v>209</v>
+      </c>
+      <c r="I171" t="s">
+        <v>209</v>
+      </c>
+      <c r="J171" t="s">
+        <v>209</v>
+      </c>
+      <c r="K171" t="s">
+        <v>209</v>
+      </c>
+      <c r="L171" t="s">
+        <v>209</v>
+      </c>
+      <c r="M171" t="s">
+        <v>209</v>
+      </c>
+      <c r="N171" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8012,6 +9380,30 @@
       <c r="F173" t="s">
         <v>209</v>
       </c>
+      <c r="G173" t="s">
+        <v>209</v>
+      </c>
+      <c r="H173" t="s">
+        <v>209</v>
+      </c>
+      <c r="I173" t="s">
+        <v>209</v>
+      </c>
+      <c r="J173" t="s">
+        <v>209</v>
+      </c>
+      <c r="K173" t="s">
+        <v>209</v>
+      </c>
+      <c r="L173" t="s">
+        <v>209</v>
+      </c>
+      <c r="M173" t="s">
+        <v>209</v>
+      </c>
+      <c r="N173" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8076,6 +9468,30 @@
       <c r="F175" t="s">
         <v>209</v>
       </c>
+      <c r="G175" t="s">
+        <v>209</v>
+      </c>
+      <c r="H175" t="s">
+        <v>209</v>
+      </c>
+      <c r="I175" t="s">
+        <v>209</v>
+      </c>
+      <c r="J175" t="s">
+        <v>209</v>
+      </c>
+      <c r="K175" t="s">
+        <v>209</v>
+      </c>
+      <c r="L175" t="s">
+        <v>209</v>
+      </c>
+      <c r="M175" t="s">
+        <v>209</v>
+      </c>
+      <c r="N175" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8140,6 +9556,30 @@
       <c r="F177" t="s">
         <v>209</v>
       </c>
+      <c r="G177" t="s">
+        <v>209</v>
+      </c>
+      <c r="H177" t="s">
+        <v>209</v>
+      </c>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+      <c r="J177" t="s">
+        <v>209</v>
+      </c>
+      <c r="K177" t="s">
+        <v>209</v>
+      </c>
+      <c r="L177" t="s">
+        <v>209</v>
+      </c>
+      <c r="M177" t="s">
+        <v>209</v>
+      </c>
+      <c r="N177" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8424,6 +9864,30 @@
       <c r="F184" t="s">
         <v>209</v>
       </c>
+      <c r="G184" t="s">
+        <v>209</v>
+      </c>
+      <c r="H184" t="s">
+        <v>209</v>
+      </c>
+      <c r="I184" t="s">
+        <v>209</v>
+      </c>
+      <c r="J184" t="s">
+        <v>209</v>
+      </c>
+      <c r="K184" t="s">
+        <v>209</v>
+      </c>
+      <c r="L184" t="s">
+        <v>209</v>
+      </c>
+      <c r="M184" t="s">
+        <v>209</v>
+      </c>
+      <c r="N184" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8576,6 +10040,30 @@
       <c r="F188" t="s">
         <v>209</v>
       </c>
+      <c r="G188" t="s">
+        <v>209</v>
+      </c>
+      <c r="H188" t="s">
+        <v>209</v>
+      </c>
+      <c r="I188" t="s">
+        <v>209</v>
+      </c>
+      <c r="J188" t="s">
+        <v>209</v>
+      </c>
+      <c r="K188" t="s">
+        <v>209</v>
+      </c>
+      <c r="L188" t="s">
+        <v>209</v>
+      </c>
+      <c r="M188" t="s">
+        <v>209</v>
+      </c>
+      <c r="N188" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8684,6 +10172,30 @@
       <c r="F191" t="s">
         <v>209</v>
       </c>
+      <c r="G191" t="s">
+        <v>209</v>
+      </c>
+      <c r="H191" t="s">
+        <v>209</v>
+      </c>
+      <c r="I191" t="s">
+        <v>209</v>
+      </c>
+      <c r="J191" t="s">
+        <v>209</v>
+      </c>
+      <c r="K191" t="s">
+        <v>209</v>
+      </c>
+      <c r="L191" t="s">
+        <v>209</v>
+      </c>
+      <c r="M191" t="s">
+        <v>209</v>
+      </c>
+      <c r="N191" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>209</v>
+      </c>
+      <c r="G192" t="s">
+        <v>209</v>
+      </c>
+      <c r="H192" t="s">
+        <v>209</v>
+      </c>
+      <c r="I192" t="s">
+        <v>209</v>
+      </c>
+      <c r="J192" t="s">
+        <v>209</v>
+      </c>
+      <c r="K192" t="s">
+        <v>209</v>
+      </c>
+      <c r="L192" t="s">
+        <v>209</v>
+      </c>
+      <c r="M192" t="s">
+        <v>209</v>
+      </c>
+      <c r="N192" t="s">
         <v>209</v>
       </c>
     </row>

--- a/sequences/03_retrieval_2.xlsx
+++ b/sequences/03_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>trösten</t>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>dringen</t>
   </si>
   <si>
     <t>jubeln</t>
   </si>
   <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>läuten</t>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>sterben</t>
   </si>
   <si>
     <t>atmen</t>
   </si>
   <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
     <t>zielen</t>
   </si>
   <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>kaufen</t>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>flüchten</t>
   </si>
   <si>
     <t>stechen</t>
   </si>
   <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>wechseln</t>
   </si>
   <si>
     <t>wachsen</t>
   </si>
   <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>herrschen</t>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>gründen</t>
   </si>
   <si>
     <t>drohen</t>
   </si>
   <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>gelten</t>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>quälen</t>
   </si>
   <si>
     <t>face/face005.jpg</t>

--- a/sequences/03_retrieval_2.xlsx
+++ b/sequences/03_retrieval_2.xlsx
@@ -76,573 +76,573 @@
     <t>wirken</t>
   </si>
   <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
     <t>lehnen</t>
   </si>
   <si>
-    <t>fliehen</t>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>zwingen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>essen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>lächeln</t>
   </si>
   <si>
     <t>faulen</t>
   </si>
   <si>
-    <t>stellen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>flehen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>löschen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>arten</t>
-  </si>
-  <si>
-    <t>flüstern</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>weinen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
     <t>leisten</t>
   </si>
   <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>haben</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>essen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>schrecken</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>tauchen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
     <t>warten</t>
   </si>
   <si>
@@ -652,784 +652,784 @@
     <t>none</t>
   </si>
   <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
     <t>flower/flower020.jpg</t>
   </si>
   <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
     <t>flower/flower019.jpg</t>
   </si>
   <si>
-    <t>flower/flower032.jpg</t>
+    <t>house/house006.jpg</t>
   </si>
   <si>
     <t>flower/flower008.jpg</t>
   </si>
   <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
     <t>dog/dog020.jpg</t>
   </si>
   <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
     <t>face/face030.jpg</t>
   </si>
   <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
   </si>
   <si>
     <t>face/face009.jpg</t>
   </si>
   <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
+    <t>flower/flower029.jpg</t>
   </si>
   <si>
     <t>face/face011.jpg</t>
   </si>
   <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>dog/dog157.jpg</t>
   </si>
   <si>
+    <t>face/face238.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower135.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower188.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower260.jpg</t>
+  </si>
+  <si>
+    <t>face/face119.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog205.jpg</t>
+  </si>
+  <si>
+    <t>face/face134.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower157.jpg</t>
+  </si>
+  <si>
+    <t>face/face228.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower263.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower193.jpg</t>
+  </si>
+  <si>
+    <t>face/face204.jpg</t>
+  </si>
+  <si>
+    <t>house/house108.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower199.jpg</t>
+  </si>
+  <si>
+    <t>house/house234.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog194.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog265.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower204.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog199.jpg</t>
+  </si>
+  <si>
+    <t>house/house251.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower123.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog217.jpg</t>
+  </si>
+  <si>
+    <t>face/face126.jpg</t>
+  </si>
+  <si>
+    <t>face/face211.jpg</t>
+  </si>
+  <si>
+    <t>house/house183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog259.jpg</t>
+  </si>
+  <si>
+    <t>house/house179.jpg</t>
+  </si>
+  <si>
+    <t>face/face135.jpg</t>
+  </si>
+  <si>
+    <t>face/face252.jpg</t>
+  </si>
+  <si>
+    <t>face/face191.jpg</t>
+  </si>
+  <si>
+    <t>house/house212.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog229.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog184.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower246.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog138.jpg</t>
+  </si>
+  <si>
+    <t>house/house107.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower217.jpg</t>
+  </si>
+  <si>
+    <t>face/face245.jpg</t>
+  </si>
+  <si>
+    <t>house/house261.jpg</t>
+  </si>
+  <si>
+    <t>face/face259.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower121.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower126.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower225.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower262.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog152.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower182.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower253.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog244.jpg</t>
+  </si>
+  <si>
+    <t>house/house208.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower236.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower219.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog188.jpg</t>
+  </si>
+  <si>
+    <t>house/house235.jpg</t>
+  </si>
+  <si>
+    <t>house/house258.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog232.jpg</t>
+  </si>
+  <si>
+    <t>face/face171.jpg</t>
+  </si>
+  <si>
+    <t>house/house096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog132.jpg</t>
+  </si>
+  <si>
+    <t>house/house123.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog210.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower200.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower197.jpg</t>
+  </si>
+  <si>
+    <t>house/house263.jpg</t>
+  </si>
+  <si>
+    <t>house/house162.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower153.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower169.jpg</t>
+  </si>
+  <si>
+    <t>face/face114.jpg</t>
+  </si>
+  <si>
+    <t>face/face153.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog185.jpg</t>
+  </si>
+  <si>
+    <t>house/house245.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog163.jpg</t>
+  </si>
+  <si>
+    <t>house/house259.jpg</t>
+  </si>
+  <si>
+    <t>face/face167.jpg</t>
+  </si>
+  <si>
+    <t>house/house213.jpg</t>
+  </si>
+  <si>
+    <t>house/house232.jpg</t>
+  </si>
+  <si>
+    <t>face/face239.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower130.jpg</t>
+  </si>
+  <si>
+    <t>house/house252.jpg</t>
+  </si>
+  <si>
+    <t>house/house167.jpg</t>
+  </si>
+  <si>
+    <t>face/face180.jpg</t>
+  </si>
+  <si>
+    <t>face/face160.jpg</t>
+  </si>
+  <si>
+    <t>face/face151.jpg</t>
+  </si>
+  <si>
+    <t>house/house142.jpg</t>
+  </si>
+  <si>
+    <t>house/house137.jpg</t>
+  </si>
+  <si>
     <t>house/house169.jpg</t>
   </si>
   <si>
+    <t>house/house262.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower233.jpg</t>
+  </si>
+  <si>
+    <t>house/house115.jpg</t>
+  </si>
+  <si>
     <t>house/house228.jpg</t>
   </si>
   <si>
-    <t>face/face153.jpg</t>
+    <t>face/face112.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog193.jpg</t>
+  </si>
+  <si>
+    <t>face/face105.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog146.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower120.jpg</t>
+  </si>
+  <si>
+    <t>face/face257.jpg</t>
+  </si>
+  <si>
+    <t>house/house170.jpg</t>
+  </si>
+  <si>
+    <t>face/face209.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog179.jpg</t>
+  </si>
+  <si>
+    <t>face/face106.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog127.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower223.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog120.jpg</t>
+  </si>
+  <si>
+    <t>house/house174.jpg</t>
+  </si>
+  <si>
+    <t>face/face215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower259.jpg</t>
+  </si>
+  <si>
+    <t>face/face223.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog172.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog262.jpg</t>
+  </si>
+  <si>
+    <t>face/face188.jpg</t>
+  </si>
+  <si>
+    <t>house/house243.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog238.jpg</t>
+  </si>
+  <si>
+    <t>face/face139.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog255.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog135.jpg</t>
+  </si>
+  <si>
+    <t>face/face183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower205.jpg</t>
+  </si>
+  <si>
+    <t>face/face217.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower166.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower161.jpg</t>
+  </si>
+  <si>
+    <t>face/face178.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog134.jpg</t>
+  </si>
+  <si>
+    <t>house/house153.jpg</t>
+  </si>
+  <si>
+    <t>house/house209.jpg</t>
   </si>
   <si>
     <t>dog/dog123.jpg</t>
   </si>
   <si>
-    <t>flower/flower263.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower193.jpg</t>
-  </si>
-  <si>
-    <t>face/face238.jpg</t>
-  </si>
-  <si>
-    <t>house/house162.jpg</t>
-  </si>
-  <si>
-    <t>face/face106.jpg</t>
-  </si>
-  <si>
-    <t>house/house263.jpg</t>
-  </si>
-  <si>
-    <t>house/house153.jpg</t>
-  </si>
-  <si>
-    <t>house/house243.jpg</t>
-  </si>
-  <si>
-    <t>face/face204.jpg</t>
-  </si>
-  <si>
-    <t>house/house234.jpg</t>
-  </si>
-  <si>
-    <t>house/house262.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower259.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog194.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower246.jpg</t>
-  </si>
-  <si>
-    <t>face/face215.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog199.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog127.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower123.jpg</t>
-  </si>
-  <si>
-    <t>house/house232.jpg</t>
-  </si>
-  <si>
-    <t>face/face252.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower217.jpg</t>
-  </si>
-  <si>
-    <t>house/house252.jpg</t>
-  </si>
-  <si>
-    <t>face/face209.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog172.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower166.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower197.jpg</t>
-  </si>
-  <si>
-    <t>face/face223.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower199.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog244.jpg</t>
-  </si>
-  <si>
-    <t>house/house261.jpg</t>
-  </si>
-  <si>
-    <t>house/house251.jpg</t>
-  </si>
-  <si>
-    <t>house/house179.jpg</t>
-  </si>
-  <si>
-    <t>house/house170.jpg</t>
-  </si>
-  <si>
-    <t>house/house174.jpg</t>
-  </si>
-  <si>
-    <t>face/face245.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog259.jpg</t>
-  </si>
-  <si>
-    <t>face/face259.jpg</t>
-  </si>
-  <si>
-    <t>house/house183.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog238.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog205.jpg</t>
-  </si>
-  <si>
-    <t>face/face178.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower169.jpg</t>
-  </si>
-  <si>
-    <t>house/house107.jpg</t>
-  </si>
-  <si>
-    <t>face/face135.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog117.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower205.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog135.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower236.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog152.jpg</t>
-  </si>
-  <si>
-    <t>house/house235.jpg</t>
-  </si>
-  <si>
-    <t>face/face126.jpg</t>
-  </si>
-  <si>
-    <t>house/house142.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog120.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog210.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog132.jpg</t>
-  </si>
-  <si>
-    <t>house/house123.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower262.jpg</t>
-  </si>
-  <si>
-    <t>face/face105.jpg</t>
-  </si>
-  <si>
-    <t>face/face171.jpg</t>
-  </si>
-  <si>
-    <t>house/house259.jpg</t>
-  </si>
-  <si>
-    <t>face/face167.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog134.jpg</t>
-  </si>
-  <si>
-    <t>face/face188.jpg</t>
-  </si>
-  <si>
-    <t>face/face114.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog265.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower219.jpg</t>
-  </si>
-  <si>
-    <t>house/house137.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower223.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower120.jpg</t>
-  </si>
-  <si>
-    <t>face/face217.jpg</t>
-  </si>
-  <si>
-    <t>house/house212.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog229.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower204.jpg</t>
-  </si>
-  <si>
-    <t>face/face183.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower157.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog217.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower152.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog232.jpg</t>
-  </si>
-  <si>
-    <t>face/face151.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower200.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog255.jpg</t>
-  </si>
-  <si>
-    <t>face/face160.jpg</t>
-  </si>
-  <si>
-    <t>face/face112.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower233.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower153.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower130.jpg</t>
-  </si>
-  <si>
-    <t>house/house258.jpg</t>
-  </si>
-  <si>
-    <t>house/house167.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower161.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower253.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog262.jpg</t>
-  </si>
-  <si>
-    <t>house/house209.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog179.jpg</t>
-  </si>
-  <si>
-    <t>house/house213.jpg</t>
-  </si>
-  <si>
-    <t>face/face180.jpg</t>
-  </si>
-  <si>
     <t>dog/dog247.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower260.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog163.jpg</t>
-  </si>
-  <si>
-    <t>house/house115.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower135.jpg</t>
-  </si>
-  <si>
-    <t>face/face239.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog146.jpg</t>
-  </si>
-  <si>
-    <t>house/house208.jpg</t>
-  </si>
-  <si>
-    <t>face/face134.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog184.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog188.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower225.jpg</t>
-  </si>
-  <si>
-    <t>face/face139.jpg</t>
-  </si>
-  <si>
-    <t>face/face257.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower182.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog185.jpg</t>
-  </si>
-  <si>
-    <t>face/face211.jpg</t>
-  </si>
-  <si>
-    <t>house/house245.jpg</t>
-  </si>
-  <si>
-    <t>face/face191.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog193.jpg</t>
-  </si>
-  <si>
-    <t>face/face228.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower126.jpg</t>
-  </si>
-  <si>
-    <t>house/house096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower188.jpg</t>
-  </si>
-  <si>
-    <t>face/face119.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog138.jpg</t>
-  </si>
-  <si>
-    <t>house/house108.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower121.jpg</t>
   </si>
   <si>
     <t>other/old/uncued</t>
@@ -1946,19 +1946,19 @@
         <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="I3" t="s">
         <v>344</v>
       </c>
       <c r="J3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K3" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="L3" t="s">
         <v>472</v>
@@ -1976,7 +1976,7 @@
         <v>475</v>
       </c>
       <c r="Q3" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="R3" t="s">
         <v>473</v>
@@ -2052,7 +2052,7 @@
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2064,25 +2064,25 @@
         <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="I5" t="s">
         <v>345</v>
       </c>
       <c r="J5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K5" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="L5" t="s">
         <v>473</v>
       </c>
       <c r="M5" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="N5" t="s">
         <v>472</v>
@@ -2170,7 +2170,7 @@
         <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2182,19 +2182,19 @@
         <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="I7" t="s">
         <v>346</v>
       </c>
       <c r="J7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="L7" t="s">
         <v>472</v>
@@ -2212,7 +2212,7 @@
         <v>475</v>
       </c>
       <c r="Q7" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="R7" t="s">
         <v>473</v>
@@ -2229,31 +2229,31 @@
         <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I8" t="s">
         <v>347</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L8" t="s">
         <v>472</v>
@@ -2262,10 +2262,10 @@
         <v>215</v>
       </c>
       <c r="N8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O8" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="P8" t="s">
         <v>473</v>
@@ -2465,22 +2465,22 @@
         <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
         <v>348</v>
@@ -2495,13 +2495,13 @@
         <v>474</v>
       </c>
       <c r="M12" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="N12" t="s">
         <v>472</v>
       </c>
       <c r="O12" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="P12" t="s">
         <v>473</v>
@@ -2510,7 +2510,7 @@
         <v>216</v>
       </c>
       <c r="R12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S12">
         <v>1.179263537757008</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>217</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H13" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="I13" t="s">
         <v>349</v>
@@ -2548,13 +2548,13 @@
         <v>340</v>
       </c>
       <c r="K13" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L13" t="s">
         <v>473</v>
       </c>
       <c r="M13" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="N13" t="s">
         <v>472</v>
@@ -2569,7 +2569,7 @@
         <v>217</v>
       </c>
       <c r="R13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S13">
         <v>1.235006237469264</v>
@@ -2642,31 +2642,31 @@
         <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="I15" t="s">
         <v>350</v>
       </c>
       <c r="J15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K15" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="L15" t="s">
         <v>472</v>
@@ -2675,10 +2675,10 @@
         <v>218</v>
       </c>
       <c r="N15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O15" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="P15" t="s">
         <v>473</v>
@@ -2878,31 +2878,31 @@
         <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>219</v>
       </c>
       <c r="G19" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="H19" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="I19" t="s">
         <v>351</v>
       </c>
       <c r="J19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K19" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="L19" t="s">
         <v>473</v>
@@ -2914,7 +2914,7 @@
         <v>474</v>
       </c>
       <c r="O19" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="P19" t="s">
         <v>472</v>
@@ -2923,7 +2923,7 @@
         <v>219</v>
       </c>
       <c r="R19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S19">
         <v>1.05592655784447</v>
@@ -2937,7 +2937,7 @@
         <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I20" t="s">
         <v>352</v>
       </c>
       <c r="J20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K20" t="s">
         <v>220</v>
@@ -2967,13 +2967,13 @@
         <v>475</v>
       </c>
       <c r="M20" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="N20" t="s">
         <v>473</v>
       </c>
       <c r="O20" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P20" t="s">
         <v>472</v>
@@ -3002,25 +3002,25 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>221</v>
       </c>
       <c r="G21" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="I21" t="s">
         <v>353</v>
       </c>
       <c r="J21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K21" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="L21" t="s">
         <v>473</v>
@@ -3029,7 +3029,7 @@
         <v>221</v>
       </c>
       <c r="N21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O21" t="s">
         <v>353</v>
@@ -3038,7 +3038,7 @@
         <v>474</v>
       </c>
       <c r="Q21" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="R21" t="s">
         <v>472</v>
@@ -3055,7 +3055,7 @@
         <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3067,25 +3067,25 @@
         <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
         <v>354</v>
       </c>
       <c r="J22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L22" t="s">
         <v>473</v>
       </c>
       <c r="M22" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s">
         <v>472</v>
@@ -3114,7 +3114,7 @@
         <v>223</v>
       </c>
       <c r="C23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3126,25 +3126,25 @@
         <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I23" t="s">
         <v>355</v>
       </c>
       <c r="J23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
         <v>472</v>
       </c>
       <c r="M23" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s">
         <v>473</v>
@@ -3185,19 +3185,19 @@
         <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="I24" t="s">
         <v>356</v>
       </c>
       <c r="J24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K24" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="L24" t="s">
         <v>472</v>
@@ -3215,7 +3215,7 @@
         <v>474</v>
       </c>
       <c r="Q24" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="R24" t="s">
         <v>473</v>
@@ -3291,7 +3291,7 @@
         <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3303,19 +3303,19 @@
         <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="H26" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="I26" t="s">
         <v>357</v>
       </c>
       <c r="J26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K26" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s">
         <v>473</v>
@@ -3327,7 +3327,7 @@
         <v>475</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s">
         <v>472</v>
@@ -3350,7 +3350,7 @@
         <v>226</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3362,16 +3362,16 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H27" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="I27" t="s">
         <v>358</v>
       </c>
       <c r="J27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K27" t="s">
         <v>226</v>
@@ -3380,7 +3380,7 @@
         <v>476</v>
       </c>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N27" t="s">
         <v>473</v>
@@ -3392,7 +3392,7 @@
         <v>474</v>
       </c>
       <c r="Q27" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="R27" t="s">
         <v>472</v>
@@ -3409,7 +3409,7 @@
         <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="H28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="I28" t="s">
         <v>359</v>
       </c>
       <c r="J28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
         <v>473</v>
       </c>
       <c r="M28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s">
         <v>472</v>
@@ -3480,25 +3480,25 @@
         <v>228</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="H29" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="I29" t="s">
         <v>360</v>
       </c>
       <c r="J29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K29" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
         <v>472</v>
       </c>
       <c r="M29" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="N29" t="s">
         <v>473</v>
@@ -3586,7 +3586,7 @@
         <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s">
         <v>361</v>
       </c>
       <c r="J31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K31" t="s">
         <v>361</v>
@@ -3616,7 +3616,7 @@
         <v>474</v>
       </c>
       <c r="M31" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s">
         <v>472</v>
@@ -3628,7 +3628,7 @@
         <v>476</v>
       </c>
       <c r="Q31" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="R31" t="s">
         <v>473</v>
@@ -3704,7 +3704,7 @@
         <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3716,19 +3716,19 @@
         <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="H33" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
         <v>362</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
         <v>473</v>
@@ -3740,7 +3740,7 @@
         <v>474</v>
       </c>
       <c r="O33" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="P33" t="s">
         <v>472</v>
@@ -3763,37 +3763,37 @@
         <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="H34" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="I34" t="s">
         <v>363</v>
       </c>
       <c r="J34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s">
         <v>473</v>
       </c>
       <c r="M34" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s">
         <v>472</v>
@@ -3808,7 +3808,7 @@
         <v>231</v>
       </c>
       <c r="R34" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S34">
         <v>1.041332482727945</v>
@@ -3822,43 +3822,43 @@
         <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>232</v>
       </c>
       <c r="G35" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I35" t="s">
         <v>364</v>
       </c>
       <c r="J35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
         <v>232</v>
       </c>
       <c r="L35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M35" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s">
         <v>473</v>
       </c>
       <c r="O35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P35" t="s">
         <v>472</v>
@@ -3881,7 +3881,7 @@
         <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3893,19 +3893,19 @@
         <v>233</v>
       </c>
       <c r="G36" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="I36" t="s">
         <v>365</v>
       </c>
       <c r="J36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
         <v>472</v>
@@ -3917,7 +3917,7 @@
         <v>474</v>
       </c>
       <c r="O36" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s">
         <v>473</v>
@@ -3999,7 +3999,7 @@
         <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -4011,19 +4011,19 @@
         <v>234</v>
       </c>
       <c r="G38" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s">
         <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s">
         <v>472</v>
@@ -4041,7 +4041,7 @@
         <v>475</v>
       </c>
       <c r="Q38" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="R38" t="s">
         <v>473</v>
@@ -4058,7 +4058,7 @@
         <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H39" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="I39" t="s">
         <v>367</v>
@@ -4082,7 +4082,7 @@
         <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
         <v>472</v>
@@ -4094,7 +4094,7 @@
         <v>475</v>
       </c>
       <c r="O39" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="P39" t="s">
         <v>473</v>
@@ -4176,13 +4176,13 @@
         <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>236</v>
@@ -4191,13 +4191,13 @@
         <v>265</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="I41" t="s">
         <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
         <v>265</v>
@@ -4206,7 +4206,7 @@
         <v>473</v>
       </c>
       <c r="M41" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="N41" t="s">
         <v>472</v>
@@ -4221,7 +4221,7 @@
         <v>236</v>
       </c>
       <c r="R41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S41">
         <v>1.048988254976747</v>
@@ -4235,7 +4235,7 @@
         <v>237</v>
       </c>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4247,10 +4247,10 @@
         <v>237</v>
       </c>
       <c r="G42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="I42" t="s">
         <v>369</v>
@@ -4259,7 +4259,7 @@
         <v>340</v>
       </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s">
         <v>473</v>
@@ -4277,7 +4277,7 @@
         <v>475</v>
       </c>
       <c r="Q42" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="R42" t="s">
         <v>472</v>
@@ -4353,7 +4353,7 @@
         <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4365,25 +4365,25 @@
         <v>238</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="I44" t="s">
         <v>370</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s">
         <v>472</v>
       </c>
       <c r="M44" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s">
         <v>473</v>
@@ -4471,7 +4471,7 @@
         <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -4483,25 +4483,25 @@
         <v>239</v>
       </c>
       <c r="G46" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="I46" t="s">
         <v>371</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K46" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s">
         <v>473</v>
       </c>
       <c r="M46" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="N46" t="s">
         <v>472</v>
@@ -4589,7 +4589,7 @@
         <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4601,16 +4601,16 @@
         <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="I48" t="s">
         <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s">
         <v>240</v>
@@ -4619,7 +4619,7 @@
         <v>475</v>
       </c>
       <c r="M48" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="N48" t="s">
         <v>472</v>
@@ -4631,7 +4631,7 @@
         <v>474</v>
       </c>
       <c r="Q48" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="R48" t="s">
         <v>473</v>
@@ -4660,10 +4660,10 @@
         <v>241</v>
       </c>
       <c r="G49" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H49" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="I49" t="s">
         <v>373</v>
@@ -4678,13 +4678,13 @@
         <v>474</v>
       </c>
       <c r="M49" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="N49" t="s">
         <v>473</v>
       </c>
       <c r="O49" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="P49" t="s">
         <v>472</v>
@@ -4707,7 +4707,7 @@
         <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4719,10 +4719,10 @@
         <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="H50" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="I50" t="s">
         <v>374</v>
@@ -4731,7 +4731,7 @@
         <v>340</v>
       </c>
       <c r="K50" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s">
         <v>473</v>
@@ -4743,7 +4743,7 @@
         <v>474</v>
       </c>
       <c r="O50" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="P50" t="s">
         <v>472</v>
@@ -4778,25 +4778,25 @@
         <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="H51" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
         <v>375</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K51" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="L51" t="s">
         <v>473</v>
       </c>
       <c r="M51" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="N51" t="s">
         <v>472</v>
@@ -4825,7 +4825,7 @@
         <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4837,25 +4837,25 @@
         <v>244</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="I52" t="s">
         <v>376</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K52" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s">
         <v>472</v>
       </c>
       <c r="M52" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="N52" t="s">
         <v>473</v>
@@ -4884,7 +4884,7 @@
         <v>245</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4896,16 +4896,16 @@
         <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="I53" t="s">
         <v>377</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K53" t="s">
         <v>377</v>
@@ -4914,13 +4914,13 @@
         <v>474</v>
       </c>
       <c r="M53" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="N53" t="s">
         <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="P53" t="s">
         <v>473</v>
@@ -5014,10 +5014,10 @@
         <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I55" t="s">
         <v>378</v>
@@ -5032,7 +5032,7 @@
         <v>474</v>
       </c>
       <c r="M55" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N55" t="s">
         <v>473</v>
@@ -5044,7 +5044,7 @@
         <v>475</v>
       </c>
       <c r="Q55" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="R55" t="s">
         <v>472</v>
@@ -5179,7 +5179,7 @@
         <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5191,19 +5191,19 @@
         <v>247</v>
       </c>
       <c r="G58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H58" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="I58" t="s">
         <v>379</v>
       </c>
       <c r="J58" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K58" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s">
         <v>472</v>
@@ -5221,7 +5221,7 @@
         <v>474</v>
       </c>
       <c r="Q58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R58" t="s">
         <v>473</v>
@@ -5250,10 +5250,10 @@
         <v>248</v>
       </c>
       <c r="G59" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="I59" t="s">
         <v>380</v>
@@ -5274,13 +5274,13 @@
         <v>474</v>
       </c>
       <c r="O59" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P59" t="s">
         <v>473</v>
       </c>
       <c r="Q59" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="R59" t="s">
         <v>472</v>
@@ -5415,28 +5415,28 @@
         <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
         <v>249</v>
       </c>
       <c r="G62" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I62" t="s">
         <v>381</v>
       </c>
       <c r="J62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K62" t="s">
         <v>381</v>
@@ -5448,16 +5448,16 @@
         <v>249</v>
       </c>
       <c r="N62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O62" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="P62" t="s">
         <v>473</v>
       </c>
       <c r="Q62" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="R62" t="s">
         <v>472</v>
@@ -5474,7 +5474,7 @@
         <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -5486,16 +5486,16 @@
         <v>250</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="H63" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="I63" t="s">
         <v>382</v>
       </c>
       <c r="J63" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K63" t="s">
         <v>250</v>
@@ -5510,13 +5510,13 @@
         <v>474</v>
       </c>
       <c r="O63" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="P63" t="s">
         <v>472</v>
       </c>
       <c r="Q63" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="R63" t="s">
         <v>473</v>
@@ -5539,25 +5539,25 @@
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>251</v>
       </c>
       <c r="G64" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I64" t="s">
         <v>383</v>
       </c>
       <c r="J64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K64" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="L64" t="s">
         <v>473</v>
@@ -5572,10 +5572,10 @@
         <v>251</v>
       </c>
       <c r="P64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q64" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="R64" t="s">
         <v>472</v>
@@ -5592,31 +5592,31 @@
         <v>252</v>
       </c>
       <c r="C65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="H65" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I65" t="s">
         <v>384</v>
       </c>
       <c r="J65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K65" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L65" t="s">
         <v>472</v>
@@ -5628,7 +5628,7 @@
         <v>474</v>
       </c>
       <c r="O65" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="P65" t="s">
         <v>473</v>
@@ -5637,7 +5637,7 @@
         <v>252</v>
       </c>
       <c r="R65" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S65">
         <v>1.187149244643197</v>
@@ -5651,7 +5651,7 @@
         <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>253</v>
       </c>
       <c r="G66" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="H66" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
         <v>385</v>
       </c>
       <c r="J66" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K66" t="s">
         <v>253</v>
@@ -5687,13 +5687,13 @@
         <v>474</v>
       </c>
       <c r="O66" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="P66" t="s">
         <v>473</v>
       </c>
       <c r="Q66" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="R66" t="s">
         <v>472</v>
@@ -5710,7 +5710,7 @@
         <v>254</v>
       </c>
       <c r="C67" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5722,16 +5722,16 @@
         <v>254</v>
       </c>
       <c r="G67" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="H67" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I67" t="s">
         <v>386</v>
       </c>
       <c r="J67" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K67" t="s">
         <v>386</v>
@@ -5746,13 +5746,13 @@
         <v>475</v>
       </c>
       <c r="O67" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="P67" t="s">
         <v>473</v>
       </c>
       <c r="Q67" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="R67" t="s">
         <v>472</v>
@@ -5834,16 +5834,16 @@
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>255</v>
       </c>
       <c r="G69" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="H69" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I69" t="s">
         <v>387</v>
@@ -5861,16 +5861,16 @@
         <v>255</v>
       </c>
       <c r="N69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O69" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="P69" t="s">
         <v>472</v>
       </c>
       <c r="Q69" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="R69" t="s">
         <v>473</v>
@@ -5887,13 +5887,13 @@
         <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>256</v>
@@ -5902,7 +5902,7 @@
         <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I70" t="s">
         <v>388</v>
@@ -5914,10 +5914,10 @@
         <v>256</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M70" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="N70" t="s">
         <v>472</v>
@@ -6064,37 +6064,37 @@
         <v>257</v>
       </c>
       <c r="C73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>257</v>
       </c>
       <c r="G73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="I73" t="s">
         <v>389</v>
       </c>
       <c r="J73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s">
         <v>257</v>
       </c>
       <c r="L73" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N73" t="s">
         <v>473</v>
@@ -6106,7 +6106,7 @@
         <v>474</v>
       </c>
       <c r="Q73" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="R73" t="s">
         <v>472</v>
@@ -6135,25 +6135,25 @@
         <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H74" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="I74" t="s">
         <v>390</v>
       </c>
       <c r="J74" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K74" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L74" t="s">
         <v>473</v>
       </c>
       <c r="M74" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N74" t="s">
         <v>472</v>
@@ -6182,7 +6182,7 @@
         <v>259</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>259</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="I75" t="s">
         <v>391</v>
       </c>
       <c r="J75" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K75" t="s">
         <v>259</v>
@@ -6212,13 +6212,13 @@
         <v>475</v>
       </c>
       <c r="M75" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N75" t="s">
         <v>473</v>
       </c>
       <c r="O75" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="P75" t="s">
         <v>472</v>
@@ -6253,19 +6253,19 @@
         <v>260</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="H76" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="I76" t="s">
         <v>392</v>
       </c>
       <c r="J76" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K76" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="L76" t="s">
         <v>473</v>
@@ -6277,7 +6277,7 @@
         <v>474</v>
       </c>
       <c r="O76" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="P76" t="s">
         <v>472</v>
@@ -6300,7 +6300,7 @@
         <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -6312,16 +6312,16 @@
         <v>261</v>
       </c>
       <c r="G77" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="H77" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="I77" t="s">
         <v>393</v>
       </c>
       <c r="J77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K77" t="s">
         <v>261</v>
@@ -6330,7 +6330,7 @@
         <v>475</v>
       </c>
       <c r="M77" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="N77" t="s">
         <v>473</v>
@@ -6342,7 +6342,7 @@
         <v>474</v>
       </c>
       <c r="Q77" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="R77" t="s">
         <v>472</v>
@@ -6418,7 +6418,7 @@
         <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -6430,16 +6430,16 @@
         <v>262</v>
       </c>
       <c r="G79" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H79" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="I79" t="s">
         <v>394</v>
       </c>
       <c r="J79" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K79" t="s">
         <v>394</v>
@@ -6448,13 +6448,13 @@
         <v>474</v>
       </c>
       <c r="M79" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="N79" t="s">
         <v>473</v>
       </c>
       <c r="O79" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="P79" t="s">
         <v>472</v>
@@ -6477,22 +6477,22 @@
         <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>263</v>
       </c>
       <c r="G80" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="H80" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="I80" t="s">
         <v>395</v>
@@ -6501,7 +6501,7 @@
         <v>343</v>
       </c>
       <c r="K80" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="L80" t="s">
         <v>472</v>
@@ -6510,7 +6510,7 @@
         <v>263</v>
       </c>
       <c r="N80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O80" t="s">
         <v>395</v>
@@ -6519,7 +6519,7 @@
         <v>474</v>
       </c>
       <c r="Q80" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="R80" t="s">
         <v>473</v>
@@ -6548,19 +6548,19 @@
         <v>264</v>
       </c>
       <c r="G81" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="H81" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="I81" t="s">
         <v>396</v>
       </c>
       <c r="J81" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K81" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="L81" t="s">
         <v>472</v>
@@ -6578,7 +6578,7 @@
         <v>474</v>
       </c>
       <c r="Q81" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="R81" t="s">
         <v>473</v>
@@ -6595,7 +6595,7 @@
         <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -6607,19 +6607,19 @@
         <v>265</v>
       </c>
       <c r="G82" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="H82" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="I82" t="s">
         <v>397</v>
       </c>
       <c r="J82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K82" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="L82" t="s">
         <v>473</v>
@@ -6631,7 +6631,7 @@
         <v>474</v>
       </c>
       <c r="O82" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="P82" t="s">
         <v>472</v>
@@ -6666,16 +6666,16 @@
         <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="H83" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="I83" t="s">
         <v>398</v>
       </c>
       <c r="J83" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K83" t="s">
         <v>398</v>
@@ -6684,7 +6684,7 @@
         <v>474</v>
       </c>
       <c r="M83" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="N83" t="s">
         <v>472</v>
@@ -6696,7 +6696,7 @@
         <v>475</v>
       </c>
       <c r="Q83" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="R83" t="s">
         <v>473</v>
@@ -6831,7 +6831,7 @@
         <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6843,10 +6843,10 @@
         <v>267</v>
       </c>
       <c r="G86" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="H86" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="I86" t="s">
         <v>399</v>
@@ -6855,13 +6855,13 @@
         <v>342</v>
       </c>
       <c r="K86" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="L86" t="s">
         <v>472</v>
       </c>
       <c r="M86" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="N86" t="s">
         <v>473</v>
@@ -6902,10 +6902,10 @@
         <v>268</v>
       </c>
       <c r="G87" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="H87" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="I87" t="s">
         <v>400</v>
@@ -6914,13 +6914,13 @@
         <v>341</v>
       </c>
       <c r="K87" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="L87" t="s">
         <v>473</v>
       </c>
       <c r="M87" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="N87" t="s">
         <v>472</v>
@@ -6949,7 +6949,7 @@
         <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -6961,16 +6961,16 @@
         <v>269</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H88" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I88" t="s">
         <v>401</v>
       </c>
       <c r="J88" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K88" t="s">
         <v>269</v>
@@ -6979,13 +6979,13 @@
         <v>475</v>
       </c>
       <c r="M88" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="N88" t="s">
         <v>472</v>
       </c>
       <c r="O88" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="P88" t="s">
         <v>473</v>
@@ -7008,7 +7008,7 @@
         <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -7020,19 +7020,19 @@
         <v>270</v>
       </c>
       <c r="G89" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I89" t="s">
         <v>402</v>
       </c>
       <c r="J89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K89" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="L89" t="s">
         <v>473</v>
@@ -7044,7 +7044,7 @@
         <v>475</v>
       </c>
       <c r="O89" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="P89" t="s">
         <v>472</v>
@@ -7138,25 +7138,25 @@
         <v>271</v>
       </c>
       <c r="G91" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="H91" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="I91" t="s">
         <v>403</v>
       </c>
       <c r="J91" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K91" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="L91" t="s">
         <v>473</v>
       </c>
       <c r="M91" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="N91" t="s">
         <v>472</v>
@@ -7197,25 +7197,25 @@
         <v>272</v>
       </c>
       <c r="G92" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="H92" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="I92" t="s">
         <v>404</v>
       </c>
       <c r="J92" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K92" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="L92" t="s">
         <v>473</v>
       </c>
       <c r="M92" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="N92" t="s">
         <v>472</v>
@@ -7250,31 +7250,31 @@
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>273</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H93" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="I93" t="s">
         <v>405</v>
       </c>
       <c r="J93" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K93" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="L93" t="s">
         <v>472</v>
       </c>
       <c r="M93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N93" t="s">
         <v>473</v>
@@ -7289,7 +7289,7 @@
         <v>273</v>
       </c>
       <c r="R93" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S93">
         <v>1.01051244917683</v>
@@ -7362,28 +7362,28 @@
         <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
         <v>274</v>
       </c>
       <c r="G95" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H95" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="I95" t="s">
         <v>406</v>
       </c>
       <c r="J95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K95" t="s">
         <v>406</v>
@@ -7392,7 +7392,7 @@
         <v>474</v>
       </c>
       <c r="M95" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="N95" t="s">
         <v>473</v>
@@ -7401,10 +7401,10 @@
         <v>274</v>
       </c>
       <c r="P95" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q95" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="R95" t="s">
         <v>472</v>
@@ -7421,37 +7421,37 @@
         <v>275</v>
       </c>
       <c r="C96" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>275</v>
       </c>
       <c r="G96" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="H96" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="I96" t="s">
         <v>407</v>
       </c>
       <c r="J96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K96" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L96" t="s">
         <v>472</v>
       </c>
       <c r="M96" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="N96" t="s">
         <v>473</v>
@@ -7466,7 +7466,7 @@
         <v>275</v>
       </c>
       <c r="R96" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S96">
         <v>1.047357072306232</v>
@@ -7480,28 +7480,28 @@
         <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>276</v>
       </c>
       <c r="G97" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="H97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I97" t="s">
         <v>408</v>
       </c>
       <c r="J97" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K97" t="s">
         <v>408</v>
@@ -7510,7 +7510,7 @@
         <v>474</v>
       </c>
       <c r="M97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N97" t="s">
         <v>472</v>
@@ -7519,10 +7519,10 @@
         <v>276</v>
       </c>
       <c r="P97" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q97" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="R97" t="s">
         <v>473</v>
@@ -7539,22 +7539,22 @@
         <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>277</v>
       </c>
       <c r="G98" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="H98" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I98" t="s">
         <v>409</v>
@@ -7563,7 +7563,7 @@
         <v>342</v>
       </c>
       <c r="K98" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L98" t="s">
         <v>472</v>
@@ -7578,10 +7578,10 @@
         <v>277</v>
       </c>
       <c r="P98" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q98" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="R98" t="s">
         <v>473</v>
@@ -7610,10 +7610,10 @@
         <v>278</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="H99" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I99" t="s">
         <v>410</v>
@@ -7628,13 +7628,13 @@
         <v>474</v>
       </c>
       <c r="M99" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="N99" t="s">
         <v>473</v>
       </c>
       <c r="O99" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P99" t="s">
         <v>472</v>
@@ -7716,34 +7716,34 @@
         <v>279</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>279</v>
       </c>
       <c r="G101" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="H101" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="I101" t="s">
         <v>411</v>
       </c>
       <c r="J101" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K101" t="s">
         <v>279</v>
       </c>
       <c r="L101" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M101" t="s">
         <v>411</v>
@@ -7752,13 +7752,13 @@
         <v>474</v>
       </c>
       <c r="O101" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="P101" t="s">
         <v>472</v>
       </c>
       <c r="Q101" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="R101" t="s">
         <v>473</v>
@@ -7775,37 +7775,37 @@
         <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
         <v>280</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="H102" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="I102" t="s">
         <v>412</v>
       </c>
       <c r="J102" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K102" t="s">
         <v>280</v>
       </c>
       <c r="L102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M102" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="N102" t="s">
         <v>472</v>
@@ -7817,7 +7817,7 @@
         <v>474</v>
       </c>
       <c r="Q102" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="R102" t="s">
         <v>473</v>
@@ -7846,16 +7846,16 @@
         <v>281</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="H103" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="I103" t="s">
         <v>413</v>
       </c>
       <c r="J103" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K103" t="s">
         <v>281</v>
@@ -7870,13 +7870,13 @@
         <v>474</v>
       </c>
       <c r="O103" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="P103" t="s">
         <v>472</v>
       </c>
       <c r="Q103" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="R103" t="s">
         <v>473</v>
@@ -7952,43 +7952,43 @@
         <v>282</v>
       </c>
       <c r="C105" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>282</v>
       </c>
       <c r="G105" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="H105" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="I105" t="s">
         <v>414</v>
       </c>
       <c r="J105" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K105" t="s">
         <v>282</v>
       </c>
       <c r="L105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M105" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="N105" t="s">
         <v>473</v>
       </c>
       <c r="O105" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="P105" t="s">
         <v>472</v>
@@ -8023,19 +8023,19 @@
         <v>283</v>
       </c>
       <c r="G106" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="H106" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I106" t="s">
         <v>415</v>
       </c>
       <c r="J106" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K106" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L106" t="s">
         <v>472</v>
@@ -8047,7 +8047,7 @@
         <v>475</v>
       </c>
       <c r="O106" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="P106" t="s">
         <v>473</v>
@@ -8082,19 +8082,19 @@
         <v>284</v>
       </c>
       <c r="G107" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="H107" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="I107" t="s">
         <v>416</v>
       </c>
       <c r="J107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K107" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="L107" t="s">
         <v>472</v>
@@ -8112,7 +8112,7 @@
         <v>475</v>
       </c>
       <c r="Q107" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="R107" t="s">
         <v>473</v>
@@ -8129,31 +8129,31 @@
         <v>285</v>
       </c>
       <c r="C108" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
         <v>285</v>
       </c>
       <c r="G108" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="H108" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="I108" t="s">
         <v>417</v>
       </c>
       <c r="J108" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K108" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="L108" t="s">
         <v>473</v>
@@ -8162,7 +8162,7 @@
         <v>285</v>
       </c>
       <c r="N108" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O108" t="s">
         <v>417</v>
@@ -8171,7 +8171,7 @@
         <v>474</v>
       </c>
       <c r="Q108" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="R108" t="s">
         <v>472</v>
@@ -8188,7 +8188,7 @@
         <v>286</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -8200,19 +8200,19 @@
         <v>286</v>
       </c>
       <c r="G109" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="H109" t="s">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="I109" t="s">
         <v>418</v>
       </c>
       <c r="J109" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K109" t="s">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="L109" t="s">
         <v>472</v>
@@ -8230,7 +8230,7 @@
         <v>476</v>
       </c>
       <c r="Q109" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="R109" t="s">
         <v>473</v>
@@ -8306,7 +8306,7 @@
         <v>287</v>
       </c>
       <c r="C111" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -8318,19 +8318,19 @@
         <v>287</v>
       </c>
       <c r="G111" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="H111" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="I111" t="s">
         <v>419</v>
       </c>
       <c r="J111" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K111" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="L111" t="s">
         <v>473</v>
@@ -8348,7 +8348,7 @@
         <v>475</v>
       </c>
       <c r="Q111" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="R111" t="s">
         <v>472</v>
@@ -8365,7 +8365,7 @@
         <v>288</v>
       </c>
       <c r="C112" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -8377,25 +8377,25 @@
         <v>288</v>
       </c>
       <c r="G112" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="H112" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="I112" t="s">
         <v>420</v>
       </c>
       <c r="J112" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K112" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="L112" t="s">
         <v>472</v>
       </c>
       <c r="M112" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="N112" t="s">
         <v>473</v>
@@ -8430,16 +8430,16 @@
         <v>0</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>289</v>
       </c>
       <c r="G113" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="H113" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="I113" t="s">
         <v>421</v>
@@ -8448,7 +8448,7 @@
         <v>340</v>
       </c>
       <c r="K113" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="L113" t="s">
         <v>473</v>
@@ -8463,10 +8463,10 @@
         <v>289</v>
       </c>
       <c r="P113" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q113" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="R113" t="s">
         <v>472</v>
@@ -8483,31 +8483,31 @@
         <v>290</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
         <v>290</v>
       </c>
       <c r="G114" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="H114" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="I114" t="s">
         <v>422</v>
       </c>
       <c r="J114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K114" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="L114" t="s">
         <v>473</v>
@@ -8522,10 +8522,10 @@
         <v>290</v>
       </c>
       <c r="P114" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q114" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="R114" t="s">
         <v>472</v>
@@ -8607,22 +8607,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="s">
         <v>291</v>
       </c>
       <c r="G116" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="H116" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="I116" t="s">
         <v>423</v>
       </c>
       <c r="J116" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K116" t="s">
         <v>423</v>
@@ -8631,13 +8631,13 @@
         <v>474</v>
       </c>
       <c r="M116" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="N116" t="s">
         <v>472</v>
       </c>
       <c r="O116" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="P116" t="s">
         <v>473</v>
@@ -8646,7 +8646,7 @@
         <v>291</v>
       </c>
       <c r="R116" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S116">
         <v>1.146606571109685</v>
@@ -8725,31 +8725,31 @@
         <v>0</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
         <v>292</v>
       </c>
       <c r="G118" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="H118" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="I118" t="s">
         <v>424</v>
       </c>
       <c r="J118" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K118" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="L118" t="s">
         <v>472</v>
       </c>
       <c r="M118" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="N118" t="s">
         <v>473</v>
@@ -8758,7 +8758,7 @@
         <v>292</v>
       </c>
       <c r="P118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q118" t="s">
         <v>424</v>
@@ -8778,7 +8778,7 @@
         <v>293</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -8790,10 +8790,10 @@
         <v>293</v>
       </c>
       <c r="G119" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="H119" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="I119" t="s">
         <v>425</v>
@@ -8814,13 +8814,13 @@
         <v>474</v>
       </c>
       <c r="O119" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="P119" t="s">
         <v>472</v>
       </c>
       <c r="Q119" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="R119" t="s">
         <v>473</v>
@@ -9014,28 +9014,28 @@
         <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
         <v>294</v>
       </c>
       <c r="G123" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H123" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="I123" t="s">
         <v>426</v>
       </c>
       <c r="J123" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K123" t="s">
         <v>426</v>
@@ -9047,16 +9047,16 @@
         <v>294</v>
       </c>
       <c r="N123" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O123" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="P123" t="s">
         <v>472</v>
       </c>
       <c r="Q123" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="R123" t="s">
         <v>473</v>
@@ -9073,7 +9073,7 @@
         <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -9085,19 +9085,19 @@
         <v>295</v>
       </c>
       <c r="G124" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="H124" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="I124" t="s">
         <v>427</v>
       </c>
       <c r="J124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K124" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="L124" t="s">
         <v>473</v>
@@ -9109,7 +9109,7 @@
         <v>475</v>
       </c>
       <c r="O124" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="P124" t="s">
         <v>472</v>
@@ -9144,25 +9144,25 @@
         <v>296</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="H125" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="I125" t="s">
         <v>428</v>
       </c>
       <c r="J125" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K125" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="L125" t="s">
         <v>472</v>
       </c>
       <c r="M125" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="N125" t="s">
         <v>473</v>
@@ -9321,19 +9321,19 @@
         <v>297</v>
       </c>
       <c r="G128" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="H128" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="I128" t="s">
         <v>429</v>
       </c>
       <c r="J128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K128" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="L128" t="s">
         <v>473</v>
@@ -9351,7 +9351,7 @@
         <v>475</v>
       </c>
       <c r="Q128" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="R128" t="s">
         <v>472</v>
@@ -9368,7 +9368,7 @@
         <v>298</v>
       </c>
       <c r="C129" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -9380,10 +9380,10 @@
         <v>298</v>
       </c>
       <c r="G129" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="H129" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="I129" t="s">
         <v>430</v>
@@ -9398,7 +9398,7 @@
         <v>474</v>
       </c>
       <c r="M129" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="N129" t="s">
         <v>473</v>
@@ -9410,7 +9410,7 @@
         <v>475</v>
       </c>
       <c r="Q129" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="R129" t="s">
         <v>472</v>
@@ -9427,7 +9427,7 @@
         <v>299</v>
       </c>
       <c r="C130" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -9439,10 +9439,10 @@
         <v>299</v>
       </c>
       <c r="G130" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H130" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="I130" t="s">
         <v>431</v>
@@ -9457,13 +9457,13 @@
         <v>474</v>
       </c>
       <c r="M130" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="N130" t="s">
         <v>472</v>
       </c>
       <c r="O130" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P130" t="s">
         <v>473</v>
@@ -9486,7 +9486,7 @@
         <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -9498,16 +9498,16 @@
         <v>300</v>
       </c>
       <c r="G131" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="H131" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="I131" t="s">
         <v>432</v>
       </c>
       <c r="J131" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K131" t="s">
         <v>432</v>
@@ -9522,13 +9522,13 @@
         <v>475</v>
       </c>
       <c r="O131" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="P131" t="s">
         <v>473</v>
       </c>
       <c r="Q131" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="R131" t="s">
         <v>472</v>
@@ -9604,37 +9604,37 @@
         <v>301</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="s">
         <v>301</v>
       </c>
       <c r="G133" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="I133" t="s">
         <v>433</v>
       </c>
       <c r="J133" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K133" t="s">
         <v>301</v>
       </c>
       <c r="L133" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M133" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="N133" t="s">
         <v>473</v>
@@ -9646,7 +9646,7 @@
         <v>474</v>
       </c>
       <c r="Q133" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="R133" t="s">
         <v>472</v>
@@ -9728,37 +9728,37 @@
         <v>0</v>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="s">
         <v>302</v>
       </c>
       <c r="G135" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="H135" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="I135" t="s">
         <v>434</v>
       </c>
       <c r="J135" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K135" t="s">
         <v>302</v>
       </c>
       <c r="L135" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M135" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="N135" t="s">
         <v>472</v>
       </c>
       <c r="O135" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="P135" t="s">
         <v>473</v>
@@ -9840,7 +9840,7 @@
         <v>303</v>
       </c>
       <c r="C137" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -9852,16 +9852,16 @@
         <v>303</v>
       </c>
       <c r="G137" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="H137" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="I137" t="s">
         <v>435</v>
       </c>
       <c r="J137" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K137" t="s">
         <v>435</v>
@@ -9870,7 +9870,7 @@
         <v>474</v>
       </c>
       <c r="M137" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="N137" t="s">
         <v>473</v>
@@ -9882,7 +9882,7 @@
         <v>475</v>
       </c>
       <c r="Q137" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="R137" t="s">
         <v>472</v>
@@ -9899,7 +9899,7 @@
         <v>304</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -9911,10 +9911,10 @@
         <v>304</v>
       </c>
       <c r="G138" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="H138" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="I138" t="s">
         <v>436</v>
@@ -9929,7 +9929,7 @@
         <v>475</v>
       </c>
       <c r="M138" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="N138" t="s">
         <v>472</v>
@@ -9941,7 +9941,7 @@
         <v>474</v>
       </c>
       <c r="Q138" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="R138" t="s">
         <v>473</v>
@@ -9964,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
         <v>305</v>
       </c>
       <c r="G139" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H139" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="I139" t="s">
         <v>437</v>
@@ -9982,13 +9982,13 @@
         <v>340</v>
       </c>
       <c r="K139" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="L139" t="s">
         <v>472</v>
       </c>
       <c r="M139" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="N139" t="s">
         <v>473</v>
@@ -9997,7 +9997,7 @@
         <v>305</v>
       </c>
       <c r="P139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q139" t="s">
         <v>437</v>
@@ -10017,7 +10017,7 @@
         <v>306</v>
       </c>
       <c r="C140" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -10029,19 +10029,19 @@
         <v>306</v>
       </c>
       <c r="G140" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H140" t="s">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="I140" t="s">
         <v>438</v>
       </c>
       <c r="J140" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K140" t="s">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="L140" t="s">
         <v>472</v>
@@ -10053,7 +10053,7 @@
         <v>474</v>
       </c>
       <c r="O140" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P140" t="s">
         <v>473</v>
@@ -10082,16 +10082,16 @@
         <v>0</v>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="s">
         <v>307</v>
       </c>
       <c r="G141" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="H141" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="I141" t="s">
         <v>439</v>
@@ -10106,7 +10106,7 @@
         <v>474</v>
       </c>
       <c r="M141" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="N141" t="s">
         <v>472</v>
@@ -10115,10 +10115,10 @@
         <v>307</v>
       </c>
       <c r="P141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q141" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="R141" t="s">
         <v>473</v>
@@ -10135,28 +10135,28 @@
         <v>308</v>
       </c>
       <c r="C142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
         <v>308</v>
       </c>
       <c r="G142" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="H142" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="I142" t="s">
         <v>440</v>
       </c>
       <c r="J142" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K142" t="s">
         <v>440</v>
@@ -10168,16 +10168,16 @@
         <v>308</v>
       </c>
       <c r="N142" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O142" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="P142" t="s">
         <v>473</v>
       </c>
       <c r="Q142" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="R142" t="s">
         <v>472</v>
@@ -10312,7 +10312,7 @@
         <v>309</v>
       </c>
       <c r="C145" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -10324,16 +10324,16 @@
         <v>309</v>
       </c>
       <c r="G145" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="H145" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I145" t="s">
         <v>441</v>
       </c>
       <c r="J145" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K145" t="s">
         <v>441</v>
@@ -10342,7 +10342,7 @@
         <v>474</v>
       </c>
       <c r="M145" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="N145" t="s">
         <v>472</v>
@@ -10354,7 +10354,7 @@
         <v>475</v>
       </c>
       <c r="Q145" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="R145" t="s">
         <v>473</v>
@@ -10371,7 +10371,7 @@
         <v>310</v>
       </c>
       <c r="C146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -10383,16 +10383,16 @@
         <v>310</v>
       </c>
       <c r="G146" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H146" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="I146" t="s">
         <v>442</v>
       </c>
       <c r="J146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K146" t="s">
         <v>310</v>
@@ -10401,7 +10401,7 @@
         <v>475</v>
       </c>
       <c r="M146" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N146" t="s">
         <v>473</v>
@@ -10413,7 +10413,7 @@
         <v>474</v>
       </c>
       <c r="Q146" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="R146" t="s">
         <v>472</v>
@@ -10489,37 +10489,37 @@
         <v>311</v>
       </c>
       <c r="C148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="s">
         <v>311</v>
       </c>
       <c r="G148" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H148" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I148" t="s">
         <v>443</v>
       </c>
       <c r="J148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K148" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L148" t="s">
         <v>472</v>
       </c>
       <c r="M148" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N148" t="s">
         <v>473</v>
@@ -10528,7 +10528,7 @@
         <v>311</v>
       </c>
       <c r="P148" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q148" t="s">
         <v>443</v>
@@ -10548,7 +10548,7 @@
         <v>312</v>
       </c>
       <c r="C149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -10560,25 +10560,25 @@
         <v>312</v>
       </c>
       <c r="G149" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="H149" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="I149" t="s">
         <v>444</v>
       </c>
       <c r="J149" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K149" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="L149" t="s">
         <v>473</v>
       </c>
       <c r="M149" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="N149" t="s">
         <v>472</v>
@@ -10731,25 +10731,25 @@
         <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
         <v>313</v>
       </c>
       <c r="G152" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="H152" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="I152" t="s">
         <v>445</v>
       </c>
       <c r="J152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K152" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="L152" t="s">
         <v>473</v>
@@ -10764,10 +10764,10 @@
         <v>313</v>
       </c>
       <c r="P152" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q152" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="R152" t="s">
         <v>472</v>
@@ -10796,10 +10796,10 @@
         <v>314</v>
       </c>
       <c r="G153" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="H153" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="I153" t="s">
         <v>446</v>
@@ -10814,13 +10814,13 @@
         <v>475</v>
       </c>
       <c r="M153" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="N153" t="s">
         <v>473</v>
       </c>
       <c r="O153" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="P153" t="s">
         <v>472</v>
@@ -10849,16 +10849,16 @@
         <v>0</v>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="s">
         <v>315</v>
       </c>
       <c r="G154" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H154" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="I154" t="s">
         <v>447</v>
@@ -10867,7 +10867,7 @@
         <v>341</v>
       </c>
       <c r="K154" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L154" t="s">
         <v>473</v>
@@ -10882,10 +10882,10 @@
         <v>315</v>
       </c>
       <c r="P154" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q154" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="R154" t="s">
         <v>472</v>
@@ -10914,19 +10914,19 @@
         <v>316</v>
       </c>
       <c r="G155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H155" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="I155" t="s">
         <v>448</v>
       </c>
       <c r="J155" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K155" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="L155" t="s">
         <v>472</v>
@@ -10944,7 +10944,7 @@
         <v>474</v>
       </c>
       <c r="Q155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R155" t="s">
         <v>473</v>
@@ -10961,7 +10961,7 @@
         <v>317</v>
       </c>
       <c r="C156" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -10973,16 +10973,16 @@
         <v>317</v>
       </c>
       <c r="G156" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="H156" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="I156" t="s">
         <v>449</v>
       </c>
       <c r="J156" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K156" t="s">
         <v>317</v>
@@ -10991,13 +10991,13 @@
         <v>475</v>
       </c>
       <c r="M156" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="N156" t="s">
         <v>472</v>
       </c>
       <c r="O156" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="P156" t="s">
         <v>473</v>
@@ -11138,7 +11138,7 @@
         <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
@@ -11150,10 +11150,10 @@
         <v>318</v>
       </c>
       <c r="G159" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="H159" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="I159" t="s">
         <v>450</v>
@@ -11162,13 +11162,13 @@
         <v>343</v>
       </c>
       <c r="K159" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="L159" t="s">
         <v>473</v>
       </c>
       <c r="M159" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="N159" t="s">
         <v>472</v>
@@ -11197,7 +11197,7 @@
         <v>319</v>
       </c>
       <c r="C160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
@@ -11209,19 +11209,19 @@
         <v>319</v>
       </c>
       <c r="G160" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H160" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="I160" t="s">
         <v>451</v>
       </c>
       <c r="J160" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K160" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L160" t="s">
         <v>472</v>
@@ -11239,7 +11239,7 @@
         <v>474</v>
       </c>
       <c r="Q160" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="R160" t="s">
         <v>473</v>
@@ -11315,7 +11315,7 @@
         <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -11327,19 +11327,19 @@
         <v>320</v>
       </c>
       <c r="G162" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="H162" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="I162" t="s">
         <v>452</v>
       </c>
       <c r="J162" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K162" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="L162" t="s">
         <v>473</v>
@@ -11351,7 +11351,7 @@
         <v>474</v>
       </c>
       <c r="O162" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="P162" t="s">
         <v>472</v>
@@ -11386,16 +11386,16 @@
         <v>321</v>
       </c>
       <c r="G163" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H163" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I163" t="s">
         <v>453</v>
       </c>
       <c r="J163" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K163" t="s">
         <v>453</v>
@@ -11410,13 +11410,13 @@
         <v>475</v>
       </c>
       <c r="O163" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P163" t="s">
         <v>472</v>
       </c>
       <c r="Q163" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="R163" t="s">
         <v>473</v>
@@ -11433,7 +11433,7 @@
         <v>322</v>
       </c>
       <c r="C164" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -11445,25 +11445,25 @@
         <v>322</v>
       </c>
       <c r="G164" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="H164" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="I164" t="s">
         <v>454</v>
       </c>
       <c r="J164" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K164" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="L164" t="s">
         <v>473</v>
       </c>
       <c r="M164" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="N164" t="s">
         <v>472</v>
@@ -11669,7 +11669,7 @@
         <v>323</v>
       </c>
       <c r="C168" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -11681,19 +11681,19 @@
         <v>323</v>
       </c>
       <c r="G168" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H168" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="I168" t="s">
         <v>455</v>
       </c>
       <c r="J168" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K168" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="L168" t="s">
         <v>472</v>
@@ -11705,7 +11705,7 @@
         <v>474</v>
       </c>
       <c r="O168" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P168" t="s">
         <v>473</v>
@@ -11728,7 +11728,7 @@
         <v>324</v>
       </c>
       <c r="C169" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -11740,16 +11740,16 @@
         <v>324</v>
       </c>
       <c r="G169" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="H169" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="I169" t="s">
         <v>456</v>
       </c>
       <c r="J169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K169" t="s">
         <v>324</v>
@@ -11758,7 +11758,7 @@
         <v>475</v>
       </c>
       <c r="M169" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="N169" t="s">
         <v>473</v>
@@ -11770,7 +11770,7 @@
         <v>474</v>
       </c>
       <c r="Q169" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="R169" t="s">
         <v>472</v>
@@ -11787,37 +11787,37 @@
         <v>325</v>
       </c>
       <c r="C170" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
         <v>325</v>
       </c>
       <c r="G170" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="H170" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="I170" t="s">
         <v>457</v>
       </c>
       <c r="J170" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K170" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="L170" t="s">
         <v>472</v>
       </c>
       <c r="M170" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="N170" t="s">
         <v>473</v>
@@ -11826,7 +11826,7 @@
         <v>325</v>
       </c>
       <c r="P170" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q170" t="s">
         <v>457</v>
@@ -11846,7 +11846,7 @@
         <v>326</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -11858,25 +11858,25 @@
         <v>326</v>
       </c>
       <c r="G171" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="H171" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="I171" t="s">
         <v>458</v>
       </c>
       <c r="J171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K171" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="L171" t="s">
         <v>473</v>
       </c>
       <c r="M171" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="N171" t="s">
         <v>472</v>
@@ -12023,7 +12023,7 @@
         <v>327</v>
       </c>
       <c r="C174" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>327</v>
       </c>
       <c r="G174" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="H174" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="I174" t="s">
         <v>459</v>
       </c>
       <c r="J174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K174" t="s">
         <v>459</v>
@@ -12053,13 +12053,13 @@
         <v>474</v>
       </c>
       <c r="M174" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="N174" t="s">
         <v>473</v>
       </c>
       <c r="O174" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="P174" t="s">
         <v>472</v>
@@ -12082,7 +12082,7 @@
         <v>328</v>
       </c>
       <c r="C175" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -12094,16 +12094,16 @@
         <v>328</v>
       </c>
       <c r="G175" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="H175" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I175" t="s">
         <v>460</v>
       </c>
       <c r="J175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K175" t="s">
         <v>460</v>
@@ -12112,13 +12112,13 @@
         <v>474</v>
       </c>
       <c r="M175" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N175" t="s">
         <v>472</v>
       </c>
       <c r="O175" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="P175" t="s">
         <v>473</v>
@@ -12200,7 +12200,7 @@
         <v>329</v>
       </c>
       <c r="C177" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -12212,10 +12212,10 @@
         <v>329</v>
       </c>
       <c r="G177" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="H177" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="I177" t="s">
         <v>461</v>
@@ -12236,13 +12236,13 @@
         <v>474</v>
       </c>
       <c r="O177" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="P177" t="s">
         <v>473</v>
       </c>
       <c r="Q177" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="R177" t="s">
         <v>472</v>
@@ -12259,31 +12259,31 @@
         <v>330</v>
       </c>
       <c r="C178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="s">
         <v>330</v>
       </c>
       <c r="G178" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="H178" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="I178" t="s">
         <v>462</v>
       </c>
       <c r="J178" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K178" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="L178" t="s">
         <v>472</v>
@@ -12295,7 +12295,7 @@
         <v>474</v>
       </c>
       <c r="O178" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="P178" t="s">
         <v>473</v>
@@ -12304,7 +12304,7 @@
         <v>330</v>
       </c>
       <c r="R178" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S178">
         <v>1.092840082593226</v>
@@ -12377,28 +12377,28 @@
         <v>331</v>
       </c>
       <c r="C180" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="s">
         <v>331</v>
       </c>
       <c r="G180" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="H180" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="I180" t="s">
         <v>463</v>
       </c>
       <c r="J180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K180" t="s">
         <v>463</v>
@@ -12407,7 +12407,7 @@
         <v>474</v>
       </c>
       <c r="M180" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="N180" t="s">
         <v>473</v>
@@ -12416,10 +12416,10 @@
         <v>331</v>
       </c>
       <c r="P180" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q180" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="R180" t="s">
         <v>472</v>
@@ -12436,7 +12436,7 @@
         <v>332</v>
       </c>
       <c r="C181" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -12448,16 +12448,16 @@
         <v>332</v>
       </c>
       <c r="G181" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="H181" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="I181" t="s">
         <v>464</v>
       </c>
       <c r="J181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K181" t="s">
         <v>332</v>
@@ -12466,7 +12466,7 @@
         <v>476</v>
       </c>
       <c r="M181" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="N181" t="s">
         <v>473</v>
@@ -12478,7 +12478,7 @@
         <v>474</v>
       </c>
       <c r="Q181" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="R181" t="s">
         <v>472</v>
@@ -12554,31 +12554,31 @@
         <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="s">
         <v>333</v>
       </c>
       <c r="G183" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="H183" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="I183" t="s">
         <v>465</v>
       </c>
       <c r="J183" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K183" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="L183" t="s">
         <v>473</v>
@@ -12590,7 +12590,7 @@
         <v>474</v>
       </c>
       <c r="O183" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="P183" t="s">
         <v>472</v>
@@ -12599,7 +12599,7 @@
         <v>333</v>
       </c>
       <c r="R183" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S183">
         <v>1.162198423990623</v>
@@ -12613,7 +12613,7 @@
         <v>334</v>
       </c>
       <c r="C184" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -12625,19 +12625,19 @@
         <v>334</v>
       </c>
       <c r="G184" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="H184" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I184" t="s">
         <v>466</v>
       </c>
       <c r="J184" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K184" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="L184" t="s">
         <v>473</v>
@@ -12649,7 +12649,7 @@
         <v>474</v>
       </c>
       <c r="O184" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P184" t="s">
         <v>472</v>
@@ -12731,34 +12731,34 @@
         <v>335</v>
       </c>
       <c r="C186" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="s">
         <v>335</v>
       </c>
       <c r="G186" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="I186" t="s">
         <v>467</v>
       </c>
       <c r="J186" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K186" t="s">
         <v>335</v>
       </c>
       <c r="L186" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M186" t="s">
         <v>467</v>
@@ -12767,13 +12767,13 @@
         <v>474</v>
       </c>
       <c r="O186" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="P186" t="s">
         <v>473</v>
       </c>
       <c r="Q186" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="R186" t="s">
         <v>472</v>
@@ -12849,7 +12849,7 @@
         <v>336</v>
       </c>
       <c r="C188" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -12861,10 +12861,10 @@
         <v>336</v>
       </c>
       <c r="G188" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="H188" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="I188" t="s">
         <v>468</v>
@@ -12879,7 +12879,7 @@
         <v>474</v>
       </c>
       <c r="M188" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="N188" t="s">
         <v>473</v>
@@ -12891,7 +12891,7 @@
         <v>475</v>
       </c>
       <c r="Q188" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="R188" t="s">
         <v>472</v>
@@ -12920,16 +12920,16 @@
         <v>337</v>
       </c>
       <c r="G189" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H189" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="I189" t="s">
         <v>469</v>
       </c>
       <c r="J189" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K189" t="s">
         <v>337</v>
@@ -12944,13 +12944,13 @@
         <v>474</v>
       </c>
       <c r="O189" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="P189" t="s">
         <v>473</v>
       </c>
       <c r="Q189" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="R189" t="s">
         <v>472</v>
@@ -12967,7 +12967,7 @@
         <v>338</v>
       </c>
       <c r="C190" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -12979,10 +12979,10 @@
         <v>338</v>
       </c>
       <c r="G190" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="H190" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="I190" t="s">
         <v>470</v>
@@ -12991,13 +12991,13 @@
         <v>341</v>
       </c>
       <c r="K190" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="L190" t="s">
         <v>472</v>
       </c>
       <c r="M190" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="N190" t="s">
         <v>473</v>
@@ -13026,34 +13026,34 @@
         <v>339</v>
       </c>
       <c r="C191" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="s">
         <v>339</v>
       </c>
       <c r="G191" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="H191" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="I191" t="s">
         <v>471</v>
       </c>
       <c r="J191" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K191" t="s">
         <v>339</v>
       </c>
       <c r="L191" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M191" t="s">
         <v>471</v>
@@ -13062,13 +13062,13 @@
         <v>474</v>
       </c>
       <c r="O191" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="P191" t="s">
         <v>472</v>
       </c>
       <c r="Q191" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="R191" t="s">
         <v>473</v>
